--- a/Data/zcb elastic 0.1 hedge.xlsx
+++ b/Data/zcb elastic 0.1 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-25653.54809372061</v>
+        <v>-31955.05547188096</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-22714.97233422563</v>
+        <v>-29676.17225764713</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-21547.10070521125</v>
+        <v>-28554.43614963468</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-20222.37941868342</v>
+        <v>-27345.03676551843</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-19200.05460849068</v>
+        <v>-26253.41694367085</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-19019.68891864571</v>
+        <v>-25785.38515499362</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-18073.03960919206</v>
+        <v>-24762.36665168988</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-17712.76736453708</v>
+        <v>-23950.09212094553</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17454.21362469868</v>
+        <v>-23256.47445437278</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-16856.42324968363</v>
+        <v>-22531.4769507817</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16442.05685275942</v>
+        <v>-21878.86857750268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15855.2904721437</v>
+        <v>-21307.76172311874</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14935.79461028884</v>
+        <v>-20306.28918431046</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14725.33447502684</v>
+        <v>-19908.55053683721</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13785.62725244128</v>
+        <v>-19124.89928503221</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13197.33016164033</v>
+        <v>-18465.82828746067</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12383.75134053192</v>
+        <v>-17719.9097223421</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-12105.94317415668</v>
+        <v>-17320.92326854576</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-12019.40561200964</v>
+        <v>-16742.7833349565</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-11175.81222698225</v>
+        <v>-16227.80327689216</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10605.56565315259</v>
+        <v>-15744.77148613732</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-10536.64353815271</v>
+        <v>-15375.48916881541</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9753.974061991488</v>
+        <v>-14588.65336346128</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8832.302284205789</v>
+        <v>-215635.1130334297</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8847.075931803325</v>
+        <v>-13038.6685247647</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8010.98572798731</v>
+        <v>-12439.73174151816</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7566.512384967029</v>
+        <v>-12194.11372945404</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7048.514890772932</v>
+        <v>-11653.10482825529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6650.542670655932</v>
+        <v>-11191.39878397457</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5964.90861956087</v>
+        <v>-10919.04115950365</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6045.96909247965</v>
+        <v>-10553.25113114333</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5530.317594534099</v>
+        <v>-10210.956220428</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5432.715357914325</v>
+        <v>-9940.269948805171</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5495.894438101536</v>
+        <v>-9672.089016207941</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4780.680819970526</v>
+        <v>-9177.61817220123</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34963.50383757913</v>
+        <v>-189010.9743569034</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4552.105806660037</v>
+        <v>-7957.291043990994</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4119.077619771196</v>
+        <v>-7666.872204817457</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3968.222910428435</v>
+        <v>-7320.585282338888</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3480.904954579512</v>
+        <v>-7142.435105850259</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3352.314340933935</v>
+        <v>-6760.058874523475</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2904.814966557704</v>
+        <v>-6323.898144492018</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2574.213403376139</v>
+        <v>-6202.95499224342</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2282.8554958458</v>
+        <v>-5568.4696162796</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-2258.730979427778</v>
+        <v>-5581.06548103269</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1585.005184349806</v>
+        <v>-5229.634256703695</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1270.280644305186</v>
+        <v>-4997.480218592349</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-630.1011564504072</v>
+        <v>-4661.404864774654</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-687.1902252955199</v>
+        <v>-4601.353319176092</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-587.2091011432371</v>
+        <v>-4353.62751978401</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-313.0198020921395</v>
+        <v>-4061.206566820655</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-453.9388084214895</v>
+        <v>-4063.388385464221</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-193.3782005000579</v>
+        <v>-3852.928277786466</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>16.36739370052798</v>
+        <v>-3664.23083094297</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-244.5095553955143</v>
+        <v>-3611.970197556304</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-107.8744422590596</v>
+        <v>-3616.821905261375</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-278.8938436061653</v>
+        <v>-3426.784218698169</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>208.1929481233181</v>
+        <v>-3372.527812693163</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>98.57935197397151</v>
+        <v>-3218.064108949344</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>291991.0597448185</v>
+        <v>-492778.3099476177</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1087.927021428215</v>
+        <v>-2097.926400570895</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1139.609243969317</v>
+        <v>-1971.314483908255</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-708.5322307658109</v>
+        <v>-1918.012846555589</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-446.0448682564921</v>
+        <v>-1832.244542763592</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-293.0067547162494</v>
+        <v>-1712.19201554702</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-305.6699622121527</v>
+        <v>-1583.209793631557</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-179.7507385272199</v>
+        <v>-1590.063382525862</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-245.7833640354143</v>
+        <v>-1492.776054589046</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-50.76387539162791</v>
+        <v>-1518.030403282171</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-29.14364307962923</v>
+        <v>-1340.443316417026</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>213.2724989258743</v>
+        <v>-1260.436399288087</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>565.8062181199213</v>
+        <v>-1248.76351023723</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>520.1444597157002</v>
+        <v>-1124.181628704439</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>362.2170743628672</v>
+        <v>-1050.78913956077</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>718.4951000516401</v>
+        <v>-1085.257635856918</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>613.1280097269513</v>
+        <v>-1017.780188396161</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>621.1806157091701</v>
+        <v>-830.5003855384994</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>538.6687872192019</v>
+        <v>-921.2049970922666</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>223.0192976479883</v>
+        <v>-931.8914538244964</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>521.7919661709087</v>
+        <v>-814.3139406443235</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>621.4947362997422</v>
+        <v>-877.4542171351267</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>508.9297679001081</v>
+        <v>-746.8782172286679</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>942.2024486985483</v>
+        <v>-757.9156259672499</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114822.3116817126</v>
+        <v>-121336.085665746</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>332.4442125879192</v>
+        <v>-502.7655168938999</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>334.4687732628577</v>
+        <v>-481.5440103965408</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>91.56134260422516</v>
+        <v>-504.4047367509214</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>114.0156640617343</v>
+        <v>-393.5102375770712</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>368.0353474514044</v>
+        <v>-479.2154296798231</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>446.6133142728048</v>
+        <v>-375.1710076383592</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>423.4017887269258</v>
+        <v>-383.7852863242068</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>594.9586754749178</v>
+        <v>-385.3558884435507</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>737.181968323508</v>
+        <v>-305.673156662599</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>596.6583053274704</v>
+        <v>-289.4475968943906</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>345.3486909909555</v>
+        <v>-368.707993290143</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54023.3599926383</v>
+        <v>-91351.83321938127</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>109.5958182488243</v>
+        <v>-278.9931143910358</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>254.1186235133804</v>
+        <v>-203.5023843752004</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>409.0140051371741</v>
+        <v>-169.5312245141542</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>415.8241351804125</v>
+        <v>-128.7501926466845</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>450.2278690590854</v>
+        <v>-186.9882196018616</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>486.5556178799325</v>
+        <v>-64.55909030567395</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>101.7101830095255</v>
+        <v>-213.1143276209215</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-20.22718582807391</v>
+        <v>-97.39137919236424</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>221.4124428670637</v>
+        <v>-31.92811768576043</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>309.512219652361</v>
+        <v>-66.7564378960956</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>664.2262208762829</v>
+        <v>6.480553712944488</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>442.3358404000592</v>
+        <v>-33.61952671924004</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>465.1228158447234</v>
+        <v>-78.90858619778348</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>654.1453983599109</v>
+        <v>15.20816516996004</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>602.881127174963</v>
+        <v>-47.02838877798744</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>607.8713752794171</v>
+        <v>25.62141500069347</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>452.8023363834093</v>
+        <v>29.52239465069076</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>371.887228884232</v>
+        <v>1.711040413666596</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>241.8042066103749</v>
+        <v>-32.14891286272103</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>367.413187495164</v>
+        <v>58.62195018740088</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>589.2056148804077</v>
+        <v>22.38406899139157</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>576.1524699173386</v>
+        <v>31.61435741946967</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>517.472651658072</v>
+        <v>-38.05367570670742</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127642.4719951813</v>
+        <v>-83466.65622297947</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.1 hedge.xlsx
+++ b/Data/zcb elastic 0.1 hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31955.05547188096</v>
+        <v>-7618.864658165509</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29676.17225764713</v>
+        <v>-7591.016077589364</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28554.43614963468</v>
+        <v>-7562.113398089061</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27345.03676551843</v>
+        <v>-7528.124641200128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26253.41694367085</v>
+        <v>-7476.329894030955</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25785.38515499362</v>
+        <v>-7445.83729185233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24762.36665168988</v>
+        <v>-7404.864288824567</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23950.09212094553</v>
+        <v>-7356.621465197931</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23256.47445437278</v>
+        <v>-7315.054015789602</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22531.4769507817</v>
+        <v>-7295.839140539429</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21878.86857750268</v>
+        <v>-7258.530267211893</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21307.76172311874</v>
+        <v>-7219.361052649208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20306.28918431046</v>
+        <v>-7190.116654270325</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19908.55053683721</v>
+        <v>-7141.892165885355</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19124.89928503221</v>
+        <v>-7130.518042456326</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18465.82828746067</v>
+        <v>-7108.23794541383</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17719.9097223421</v>
+        <v>-7046.823056252726</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17320.92326854576</v>
+        <v>-7029.880590066594</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16742.7833349565</v>
+        <v>-6972.810612171384</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16227.80327689216</v>
+        <v>-6955.19790478988</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15744.77148613732</v>
+        <v>-6922.663862652382</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15375.48916881541</v>
+        <v>-6905.052458614416</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14588.65336346128</v>
+        <v>-6858.084551571816</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215635.1130334297</v>
+        <v>-224417.633702178</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-13038.6685247647</v>
+        <v>-5844.191013512636</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12439.73174151816</v>
+        <v>-5779.945291837855</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12194.11372945404</v>
+        <v>-5797.480867073043</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11653.10482825529</v>
+        <v>-5743.031072042689</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11191.39878397457</v>
+        <v>-5723.491444847658</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10919.04115950365</v>
+        <v>-5712.055085429246</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10553.25113114333</v>
+        <v>-5694.163182164448</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10210.956220428</v>
+        <v>-5660.054415597345</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9940.269948805171</v>
+        <v>-5667.320346826725</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9672.089016207941</v>
+        <v>-5598.323267615775</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9177.61817220123</v>
+        <v>-5590.269916115128</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-189010.9743569034</v>
+        <v>-223358.7078968173</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-7957.291043990994</v>
+        <v>-4749.064372069365</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7666.872204817457</v>
+        <v>-4723.769616620501</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7320.585282338888</v>
+        <v>-4609.454571616703</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7142.435105850259</v>
+        <v>-4667.954579250546</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6760.058874523475</v>
+        <v>-4608.029087816854</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6323.898144492018</v>
+        <v>-4646.317626865785</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6202.95499224342</v>
+        <v>-4566.578859814555</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5568.4696162796</v>
+        <v>-4571.453855078302</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5581.06548103269</v>
+        <v>-4568.716507073082</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5229.634256703695</v>
+        <v>-4520.749729843938</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4997.480218592349</v>
+        <v>-4492.399718651678</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4661.404864774654</v>
+        <v>-4528.104526544863</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4601.353319176092</v>
+        <v>-4459.750512196745</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4353.62751978401</v>
+        <v>-4472.584052023911</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4061.206566820655</v>
+        <v>-4386.976716971725</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4063.388385464221</v>
+        <v>-4449.70217213517</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3852.928277786466</v>
+        <v>-4385.160737615673</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3664.23083094297</v>
+        <v>-4394.402355479659</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3611.970197556304</v>
+        <v>-4343.658458957308</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3616.821905261375</v>
+        <v>-4378.7108032394</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3426.784218698169</v>
+        <v>-4280.180288857568</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3372.527812693163</v>
+        <v>-4328.064302277291</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3218.064108949344</v>
+        <v>-4330.613571955624</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492778.3099476177</v>
+        <v>-781157.8890962367</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2097.926400570895</v>
+        <v>-1889.929655936421</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1971.314483908255</v>
+        <v>-1869.259287262745</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1918.012846555589</v>
+        <v>-1867.041166838934</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1832.244542763592</v>
+        <v>-1894.804758631496</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1712.19201554702</v>
+        <v>-1795.621870727888</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1583.209793631557</v>
+        <v>-1832.34411771293</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1590.063382525862</v>
+        <v>-1813.813104669083</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1492.776054589046</v>
+        <v>-1784.561658915367</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1518.030403282171</v>
+        <v>-1731.813777512405</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1340.443316417026</v>
+        <v>-1713.673596890816</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1260.436399288087</v>
+        <v>-1735.184613180497</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1248.76351023723</v>
+        <v>-1699.718999896628</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1124.181628704439</v>
+        <v>-1702.043766137078</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1050.78913956077</v>
+        <v>-1654.461031112301</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1085.257635856918</v>
+        <v>-1639.023767405452</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1017.780188396161</v>
+        <v>-1633.123318128582</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-830.5003855384994</v>
+        <v>-1620.579574167254</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-921.2049970922666</v>
+        <v>-1574.553845321484</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-931.8914538244964</v>
+        <v>-1556.860954223543</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-814.3139406443235</v>
+        <v>-1587.281426201779</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-877.4542171351267</v>
+        <v>-1571.181595797245</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-746.8782172286679</v>
+        <v>-1506.187310189085</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-757.9156259672499</v>
+        <v>-1520.946087244914</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121336.085665746</v>
+        <v>-235209.0103284386</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-502.7655168938999</v>
+        <v>-918.6193351782171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-481.5440103965408</v>
+        <v>-949.8772159844984</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-504.4047367509214</v>
+        <v>-899.2061835429002</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-393.5102375770712</v>
+        <v>-859.7229269598959</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-479.2154296798231</v>
+        <v>-828.8944918172162</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-375.1710076383592</v>
+        <v>-857.286479861967</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-383.7852863242068</v>
+        <v>-815.6232144472115</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-385.3558884435507</v>
+        <v>-830.8742608938511</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-305.673156662599</v>
+        <v>-804.7206904835986</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-289.4475968943906</v>
+        <v>-764.1763782720889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-368.707993290143</v>
+        <v>-727.8451412553924</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91351.83321938127</v>
+        <v>-144675.8074701582</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-278.9931143910358</v>
+        <v>-540.3447506230031</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-203.5023843752004</v>
+        <v>-570.9523182002901</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-169.5312245141542</v>
+        <v>-454.8080389790088</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-128.7501926466845</v>
+        <v>-506.1179650901291</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-186.9882196018616</v>
+        <v>-483.9748354026854</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-64.55909030567395</v>
+        <v>-441.4849419500025</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-213.1143276209215</v>
+        <v>-421.5686811117322</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-97.39137919236424</v>
+        <v>-430.5782424527509</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-31.92811768576043</v>
+        <v>-383.2294572179867</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-66.7564378960956</v>
+        <v>-355.9589213717814</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>6.480553712944488</v>
+        <v>-327.1995240119451</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-33.61952671924004</v>
+        <v>-299.3365184752381</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-78.90858619778348</v>
+        <v>-287.4033385467769</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>15.20816516996004</v>
+        <v>-284.2051012602797</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-47.02838877798744</v>
+        <v>-216.9725402197455</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>25.62141500069347</v>
+        <v>-175.7607366232982</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>29.52239465069076</v>
+        <v>-146.6342988685192</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.711040413666596</v>
+        <v>-111.0109006095279</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-32.14891286272103</v>
+        <v>-57.42193937345447</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>58.62195018740088</v>
+        <v>-41.92522295732585</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>22.38406899139157</v>
+        <v>26.15201869513573</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>31.61435741946967</v>
+        <v>2.885171156693923</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-38.05367570670742</v>
+        <v>57.67237284516067</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83466.65622297947</v>
+        <v>-67010.11807382174</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.1 hedge.xlsx
+++ b/Data/zcb elastic 0.1 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7618.864658165509</v>
+        <v>-27895.40139477833</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7591.016077589364</v>
+        <v>-28515.76312194742</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7562.113398089061</v>
+        <v>-28939.07281432488</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7528.124641200128</v>
+        <v>-29297.03367180971</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7476.329894030955</v>
+        <v>-29438.84706819475</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7445.83729185233</v>
+        <v>-29257.2372740233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7404.864288824567</v>
+        <v>-29075.57527457133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7356.621465197931</v>
+        <v>-28896.22250611754</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7315.054015789602</v>
+        <v>-28587.78420412749</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7295.839140539429</v>
+        <v>-28141.81856796814</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7258.530267211893</v>
+        <v>-27655.74695984563</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7219.361052649208</v>
+        <v>-27234.87806082557</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7190.116654270325</v>
+        <v>-26679.27799247644</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7141.892165885355</v>
+        <v>-26203.91821632873</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7130.518042456326</v>
+        <v>-25232.96262943305</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7108.23794541383</v>
+        <v>-24280.10784911337</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7046.823056252726</v>
+        <v>-23951.18010242646</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7029.880590066594</v>
+        <v>-23270.29527929629</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6972.810612171384</v>
+        <v>-22685.80908013986</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6955.19790478988</v>
+        <v>-22070.84778080559</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6922.663862652382</v>
+        <v>-21411.67278131446</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6905.052458614416</v>
+        <v>-20729.68052994041</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6858.084551571816</v>
+        <v>-20172.74824115834</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224417.633702178</v>
+        <v>-126548.0371406179</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5844.191013512636</v>
+        <v>-15996.63166307754</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5779.945291837855</v>
+        <v>-15774.59065343474</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5797.480867073043</v>
+        <v>-15487.99418407116</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5743.031072042689</v>
+        <v>-14969.91611848593</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5723.491444847658</v>
+        <v>-14721.58184040877</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5712.055085429246</v>
+        <v>-14252.63791854412</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5694.163182164448</v>
+        <v>-13975.67017252364</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5660.054415597345</v>
+        <v>-13482.5715040548</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5667.320346826725</v>
+        <v>-13192.79482781712</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5598.323267615775</v>
+        <v>-12831.95658675715</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5590.269916115128</v>
+        <v>-12448.76767140093</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223358.7078968173</v>
+        <v>-118193.4012165837</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4749.064372069365</v>
+        <v>-10000.11546850879</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4723.769616620501</v>
+        <v>-9751.277400389468</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4609.454571616703</v>
+        <v>-9575.764391549908</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4667.954579250546</v>
+        <v>-9376.883007253087</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4608.029087816854</v>
+        <v>-9471.109786259374</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4646.317626865785</v>
+        <v>-9165.663881334423</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4566.578859814555</v>
+        <v>-8801.520403625613</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4571.453855078302</v>
+        <v>-8714.208064232133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4568.716507073082</v>
+        <v>-8561.765333810317</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4520.749729843938</v>
+        <v>-8431.643412326708</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4492.399718651678</v>
+        <v>-8316.888070769679</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4528.104526544863</v>
+        <v>-8086.926091540821</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4459.750512196745</v>
+        <v>-7852.464688736385</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4472.584052023911</v>
+        <v>-7709.922545199388</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4386.976716971725</v>
+        <v>-7601.425981203901</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4449.70217213517</v>
+        <v>-7421.310999707099</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4385.160737615673</v>
+        <v>-7342.536632452878</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4394.402355479659</v>
+        <v>-7240.285538545991</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4343.658458957308</v>
+        <v>-7058.290006016597</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4378.7108032394</v>
+        <v>-6820.968273387424</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4280.180288857568</v>
+        <v>-6715.632629886886</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4328.064302277291</v>
+        <v>-6596.879881593519</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4330.613571955624</v>
+        <v>-6466.681509901226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781157.8890962367</v>
+        <v>-375343.4134977328</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1889.929655936421</v>
+        <v>-2474.45031820012</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1869.259287262745</v>
+        <v>-2434.932450568131</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1867.041166838934</v>
+        <v>-2424.901347543479</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1894.804758631496</v>
+        <v>-2392.771480389823</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1795.621870727888</v>
+        <v>-2364.255556602068</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1832.34411771293</v>
+        <v>-2317.343059066611</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1813.813104669083</v>
+        <v>-2272.481806413444</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1784.561658915367</v>
+        <v>-2213.954013322024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1731.813777512405</v>
+        <v>-2182.830797364119</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1713.673596890816</v>
+        <v>-2160.639593131092</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1735.184613180497</v>
+        <v>-2161.563437901291</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1699.718999896628</v>
+        <v>-2127.744909847804</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1702.043766137078</v>
+        <v>-2051.366250581777</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1654.461031112301</v>
+        <v>-2049.663341533508</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1639.023767405452</v>
+        <v>-2023.823499631652</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1633.123318128582</v>
+        <v>-2015.833462661754</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1620.579574167254</v>
+        <v>-1993.763257116571</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1574.553845321484</v>
+        <v>-1955.290802622445</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1556.860954223543</v>
+        <v>-1894.158295986315</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1587.281426201779</v>
+        <v>-1863.008395659253</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1571.181595797245</v>
+        <v>-1885.401284860226</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1506.187310189085</v>
+        <v>-1854.325499194991</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1520.946087244914</v>
+        <v>-1814.303400524531</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235209.0103284386</v>
+        <v>-120524.7940661874</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-918.6193351782171</v>
+        <v>-995.8879277998261</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-949.8772159844984</v>
+        <v>-977.6480777419064</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-899.2061835429002</v>
+        <v>-971.2826732002859</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-859.7229269598959</v>
+        <v>-960.5158805722479</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-828.8944918172162</v>
+        <v>-949.8506244844774</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-857.286479861967</v>
+        <v>-933.1555361234625</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-815.6232144472115</v>
+        <v>-945.4978002751878</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-830.8742608938511</v>
+        <v>-930.6376371467926</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-804.7206904835986</v>
+        <v>-904.4469075831578</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-764.1763782720889</v>
+        <v>-900.4407477760642</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-727.8451412553924</v>
+        <v>-912.7050520573351</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144675.8074701582</v>
+        <v>-97414.38924949687</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-540.3447506230031</v>
+        <v>-585.9747145199048</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-570.9523182002901</v>
+        <v>-594.9603215965017</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-454.8080389790088</v>
+        <v>-607.2786158704392</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-506.1179650901291</v>
+        <v>-603.0650852692424</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-483.9748354026854</v>
+        <v>-580.9736087135082</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-441.4849419500025</v>
+        <v>-561.571606654182</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-421.5686811117322</v>
+        <v>-561.683400960731</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-430.5782424527509</v>
+        <v>-577.6895784706194</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-383.2294572179867</v>
+        <v>-572.8619829852934</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-355.9589213717814</v>
+        <v>-568.259728139209</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-327.1995240119451</v>
+        <v>-557.1354353433503</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-299.3365184752381</v>
+        <v>-572.9894359906104</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-287.4033385467769</v>
+        <v>-553.8648467534365</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-284.2051012602797</v>
+        <v>-527.8502130502378</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-216.9725402197455</v>
+        <v>-532.5613190961479</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-175.7607366232982</v>
+        <v>-537.1785760701622</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-146.6342988685192</v>
+        <v>-534.4878733352668</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-111.0109006095279</v>
+        <v>-505.9539229868564</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-57.42193937345447</v>
+        <v>-508.0014189198305</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-41.92522295732585</v>
+        <v>-502.7326183771261</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>26.15201869513573</v>
+        <v>-487.3836304580874</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2.885171156693923</v>
+        <v>-486.9244542655122</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>57.67237284516067</v>
+        <v>-468.5489286558055</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67010.11807382174</v>
+        <v>-111060.5478772291</v>
       </c>
     </row>
   </sheetData>
